--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_13_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_13_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>728970.829592824</v>
+        <v>685631.2395701144</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6542240.186367747</v>
+        <v>6542240.186367734</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9316656.146606468</v>
+        <v>9316656.14660647</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>244.8448976285502</v>
       </c>
       <c r="F2" t="n">
-        <v>92.07720442932821</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,10 +718,10 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -743,22 +743,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>98.12195560883281</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>145.6067190701758</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -822,25 +822,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>147.5726129585871</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>18.14576679396761</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -910,13 +910,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>19.14517669692269</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>99.80516430368441</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>94.01296546539852</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>140.1815018398517</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1034,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>212.1784969541577</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>185.150895008229</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>80.65289090103607</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6359113765081</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.1793862679149</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1107,16 +1107,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.1557535054015</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2451165574754</v>
+        <v>269.975711217687</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>305.012616457272</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>253.9714406065378</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1305,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>1.781160222249673</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>281.9841463166824</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>135.0614749646557</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,16 +1426,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>294.3263193288728</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1530,16 +1530,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -1587,13 +1587,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>62.09581973348902</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>203.9275675209638</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>24.29560754352877</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>280.3734770621764</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292598</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>62.09581973348902</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>211.0910963765132</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>352.4235542512939</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1861,10 +1861,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396202</v>
@@ -1906,13 +1906,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>121.3416305177546</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>77.31354443380414</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>186.7751278701832</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>223.6073936510854</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2098,7 +2098,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>201.6622187863191</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2247,7 +2247,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>120.7667320282619</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2256,10 +2256,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>131.6653792309041</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2329,13 +2329,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>23.74571998351963</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>359.3599057694612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247633</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>42.86209348694648</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2487,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>217.091419992848</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2557,25 +2557,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>47.87730750143825</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.07832301843419</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>56.25014459232732</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>168.4243449750659</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>61.4169936080618</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2800,16 +2800,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>91.06967859962572</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>27.19006412747702</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>30.52483784357214</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3037,16 +3037,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>58.92805047992061</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>299.3798747282125</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>18.26879610204007</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>224.7562560951387</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>195.0465954186446</v>
+        <v>195.0465954186437</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3432,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>187.4330611973846</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>114.1627038799787</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>99.50249420969755</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>148.615183167112</v>
       </c>
     </row>
     <row r="39">
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>163.6898441249712</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>230.2444561226613</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3745,10 +3745,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3757,7 +3757,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.93377084804277</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>260.8804908563087</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>131.573039120795</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>114.2656173771016</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3985,16 +3985,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>372.1007580824231</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>102.8695072550966</v>
       </c>
     </row>
     <row r="45">
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4143,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>54.79134020099045</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>174.6413650862685</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>114.1043876014621</v>
+        <v>534.7928453799755</v>
       </c>
       <c r="C2" t="n">
-        <v>114.1043876014621</v>
+        <v>534.7928453799755</v>
       </c>
       <c r="D2" t="n">
-        <v>114.1043876014621</v>
+        <v>534.7928453799755</v>
       </c>
       <c r="E2" t="n">
-        <v>114.1043876014621</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="F2" t="n">
         <v>21.0971104001205</v>
@@ -4330,22 +4330,22 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917624</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052542</v>
+        <v>142.2640879052545</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.517494751591</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030608</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991319</v>
+        <v>704.5463761991321</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358417</v>
+        <v>888.5149683358418</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4357,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946894</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>900.5447187946894</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>646.8597007358183</v>
+        <v>801.1705019471535</v>
       </c>
       <c r="V2" t="n">
-        <v>380.4820441686402</v>
+        <v>801.1705019471535</v>
       </c>
       <c r="W2" t="n">
-        <v>114.1043876014621</v>
+        <v>801.1705019471535</v>
       </c>
       <c r="X2" t="n">
-        <v>114.1043876014621</v>
+        <v>801.1705019471535</v>
       </c>
       <c r="Y2" t="n">
-        <v>114.1043876014621</v>
+        <v>801.1705019471535</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>573.231682017886</v>
+        <v>427.3532852688019</v>
       </c>
       <c r="C3" t="n">
-        <v>573.231682017886</v>
+        <v>427.3532852688019</v>
       </c>
       <c r="D3" t="n">
-        <v>424.2972723566347</v>
+        <v>427.3532852688019</v>
       </c>
       <c r="E3" t="n">
-        <v>265.0598173511792</v>
+        <v>268.1158302633464</v>
       </c>
       <c r="F3" t="n">
-        <v>265.0598173511792</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="G3" t="n">
-        <v>165.9467308776107</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>117.4455628004804</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957469</v>
+        <v>192.1295835699345</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302313</v>
+        <v>338.8740072302312</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267552</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293602</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O3" t="n">
-        <v>909.46721075609</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789494</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4442,19 +4442,19 @@
         <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>808.3837902496286</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V3" t="n">
-        <v>573.231682017886</v>
+        <v>889.4421422025364</v>
       </c>
       <c r="W3" t="n">
-        <v>573.231682017886</v>
+        <v>635.2047854743348</v>
       </c>
       <c r="X3" t="n">
-        <v>573.231682017886</v>
+        <v>427.3532852688019</v>
       </c>
       <c r="Y3" t="n">
-        <v>573.231682017886</v>
+        <v>427.3532852688019</v>
       </c>
     </row>
     <row r="4">
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>926.0629918407079</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C4" t="n">
-        <v>926.0629918407079</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D4" t="n">
-        <v>776.9997464279937</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E4" t="n">
-        <v>629.0866528456006</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F4" t="n">
-        <v>482.1967053476902</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G4" t="n">
-        <v>313.6273447026937</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>159.7059716361716</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375339</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.182233022705</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075546</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4512,28 +4512,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407079</v>
+        <v>1036.526462638381</v>
       </c>
       <c r="S4" t="n">
-        <v>926.0629918407079</v>
+        <v>1036.526462638381</v>
       </c>
       <c r="T4" t="n">
-        <v>926.0629918407079</v>
+        <v>1036.526462638381</v>
       </c>
       <c r="U4" t="n">
-        <v>926.0629918407079</v>
+        <v>770.1488060712027</v>
       </c>
       <c r="V4" t="n">
-        <v>926.0629918407079</v>
+        <v>515.4643178653158</v>
       </c>
       <c r="W4" t="n">
-        <v>926.0629918407079</v>
+        <v>249.0866612981378</v>
       </c>
       <c r="X4" t="n">
-        <v>926.0629918407079</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="Y4" t="n">
-        <v>926.0629918407079</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.1665156518927</v>
+        <v>598.6038419874085</v>
       </c>
       <c r="C5" t="n">
-        <v>53.20399871148095</v>
+        <v>229.6413250469968</v>
       </c>
       <c r="D5" t="n">
-        <v>53.20399871148095</v>
+        <v>229.6413250469968</v>
       </c>
       <c r="E5" t="n">
-        <v>53.20399871148095</v>
+        <v>229.6413250469968</v>
       </c>
       <c r="F5" t="n">
-        <v>53.20399871148095</v>
+        <v>229.6413250469968</v>
       </c>
       <c r="G5" t="n">
-        <v>33.86543639135702</v>
+        <v>229.6413250469968</v>
       </c>
       <c r="H5" t="n">
-        <v>33.86543639135702</v>
+        <v>128.8280277705479</v>
       </c>
       <c r="I5" t="n">
-        <v>33.86543639135702</v>
+        <v>33.86543639135742</v>
       </c>
       <c r="J5" t="n">
-        <v>108.4604468780267</v>
+        <v>108.4604468780282</v>
       </c>
       <c r="K5" t="n">
-        <v>270.9975490818665</v>
+        <v>270.99754908187</v>
       </c>
       <c r="L5" t="n">
-        <v>509.5409587373938</v>
+        <v>509.5409587374002</v>
       </c>
       <c r="M5" t="n">
-        <v>806.6359018176408</v>
+        <v>806.6359018176505</v>
       </c>
       <c r="N5" t="n">
-        <v>1113.15196005896</v>
+        <v>1113.151960058972</v>
       </c>
       <c r="O5" t="n">
-        <v>1389.251120836685</v>
+        <v>1389.2511208367</v>
       </c>
       <c r="P5" t="n">
-        <v>1590.394365921674</v>
+        <v>1590.394365921692</v>
       </c>
       <c r="Q5" t="n">
-        <v>1693.271819567851</v>
+        <v>1693.271819567871</v>
       </c>
       <c r="R5" t="n">
-        <v>1693.271819567851</v>
+        <v>1693.271819567871</v>
       </c>
       <c r="S5" t="n">
-        <v>1551.67434296194</v>
+        <v>1693.271819567871</v>
       </c>
       <c r="T5" t="n">
-        <v>1551.67434296194</v>
+        <v>1693.271819567871</v>
       </c>
       <c r="U5" t="n">
-        <v>1551.67434296194</v>
+        <v>1693.271819567871</v>
       </c>
       <c r="V5" t="n">
-        <v>1551.67434296194</v>
+        <v>1362.2089322243</v>
       </c>
       <c r="W5" t="n">
-        <v>1198.905687691826</v>
+        <v>1362.2089322243</v>
       </c>
       <c r="X5" t="n">
-        <v>1198.905687691826</v>
+        <v>988.7431739632202</v>
       </c>
       <c r="Y5" t="n">
-        <v>808.7663557160145</v>
+        <v>598.6038419874085</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>640.885612753986</v>
+        <v>640.8856127539864</v>
       </c>
       <c r="C6" t="n">
-        <v>466.4325834728591</v>
+        <v>466.4325834728594</v>
       </c>
       <c r="D6" t="n">
-        <v>317.4981738116078</v>
+        <v>317.4981738116081</v>
       </c>
       <c r="E6" t="n">
-        <v>317.4981738116078</v>
+        <v>317.4981738116081</v>
       </c>
       <c r="F6" t="n">
-        <v>170.9636158384928</v>
+        <v>170.9636158384931</v>
       </c>
       <c r="G6" t="n">
-        <v>33.86543639135702</v>
+        <v>33.86543639135742</v>
       </c>
       <c r="H6" t="n">
-        <v>33.86543639135702</v>
+        <v>33.86543639135742</v>
       </c>
       <c r="I6" t="n">
-        <v>33.86543639135702</v>
+        <v>33.86543639135742</v>
       </c>
       <c r="J6" t="n">
-        <v>59.47586665324343</v>
+        <v>59.47586665324469</v>
       </c>
       <c r="K6" t="n">
-        <v>181.4029958650476</v>
+        <v>274.4407114441817</v>
       </c>
       <c r="L6" t="n">
-        <v>391.671608987781</v>
+        <v>484.7093245669172</v>
       </c>
       <c r="M6" t="n">
-        <v>656.4020309445203</v>
+        <v>749.4397465236589</v>
       </c>
       <c r="N6" t="n">
-        <v>942.5477243562464</v>
+        <v>1035.585439935387</v>
       </c>
       <c r="O6" t="n">
-        <v>1182.095335530442</v>
+        <v>1454.670215278435</v>
       </c>
       <c r="P6" t="n">
-        <v>1419.424910699109</v>
+        <v>1627.595225892905</v>
       </c>
       <c r="Q6" t="n">
-        <v>1693.078019232565</v>
+        <v>1693.271819567871</v>
       </c>
       <c r="R6" t="n">
-        <v>1693.271819567851</v>
+        <v>1693.271819567871</v>
       </c>
       <c r="S6" t="n">
-        <v>1693.271819567851</v>
+        <v>1693.271819567871</v>
       </c>
       <c r="T6" t="n">
-        <v>1693.271819567851</v>
+        <v>1693.271819567871</v>
       </c>
       <c r="U6" t="n">
-        <v>1693.271819567851</v>
+        <v>1693.271819567871</v>
       </c>
       <c r="V6" t="n">
-        <v>1478.950105472742</v>
+        <v>1458.119711336128</v>
       </c>
       <c r="W6" t="n">
-        <v>1224.712748744541</v>
+        <v>1203.882354607927</v>
       </c>
       <c r="X6" t="n">
         <v>1016.861248539008</v>
       </c>
       <c r="Y6" t="n">
-        <v>809.100949774054</v>
+        <v>809.1009497740545</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>604.2846380520509</v>
+        <v>33.86543639135742</v>
       </c>
       <c r="C7" t="n">
-        <v>435.348455124144</v>
+        <v>33.86543639135742</v>
       </c>
       <c r="D7" t="n">
-        <v>435.348455124144</v>
+        <v>33.86543639135742</v>
       </c>
       <c r="E7" t="n">
-        <v>435.348455124144</v>
+        <v>33.86543639135742</v>
       </c>
       <c r="F7" t="n">
-        <v>353.8808885574409</v>
+        <v>33.86543639135742</v>
       </c>
       <c r="G7" t="n">
-        <v>185.5617861569277</v>
+        <v>33.86543639135742</v>
       </c>
       <c r="H7" t="n">
-        <v>33.86543639135702</v>
+        <v>33.86543639135742</v>
       </c>
       <c r="I7" t="n">
-        <v>33.86543639135702</v>
+        <v>33.86543639135742</v>
       </c>
       <c r="J7" t="n">
-        <v>36.28512133652124</v>
+        <v>36.28512133652218</v>
       </c>
       <c r="K7" t="n">
-        <v>170.0982437128583</v>
+        <v>170.0982437128602</v>
       </c>
       <c r="L7" t="n">
-        <v>396.8594047119564</v>
+        <v>396.8594047119594</v>
       </c>
       <c r="M7" t="n">
-        <v>646.3363778191506</v>
+        <v>646.3363778191548</v>
       </c>
       <c r="N7" t="n">
-        <v>895.3159625361612</v>
+        <v>895.3159625361666</v>
       </c>
       <c r="O7" t="n">
-        <v>1109.272612021376</v>
+        <v>1109.272612021382</v>
       </c>
       <c r="P7" t="n">
-        <v>1268.828805580461</v>
+        <v>1268.828805580468</v>
       </c>
       <c r="Q7" t="n">
-        <v>1295.862163397008</v>
+        <v>1295.862163397016</v>
       </c>
       <c r="R7" t="n">
-        <v>1295.862163397008</v>
+        <v>1295.862163397016</v>
       </c>
       <c r="S7" t="n">
-        <v>1295.862163397008</v>
+        <v>1295.862163397016</v>
       </c>
       <c r="T7" t="n">
-        <v>1295.862163397008</v>
+        <v>1071.462412381459</v>
       </c>
       <c r="U7" t="n">
-        <v>1006.725682025821</v>
+        <v>798.759673777735</v>
       </c>
       <c r="V7" t="n">
-        <v>1006.725682025821</v>
+        <v>544.0751855718481</v>
       </c>
       <c r="W7" t="n">
-        <v>1006.725682025821</v>
+        <v>254.6580155348875</v>
       </c>
       <c r="X7" t="n">
-        <v>1006.725682025821</v>
+        <v>254.6580155348875</v>
       </c>
       <c r="Y7" t="n">
-        <v>785.9331028822907</v>
+        <v>33.86543639135742</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>728.3028554854573</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="C8" t="n">
-        <v>359.3403385450455</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="D8" t="n">
-        <v>51.24678656800311</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="E8" t="n">
-        <v>51.24678656800311</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="F8" t="n">
-        <v>51.24678656800311</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056585</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.507785786471</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X8" t="n">
-        <v>1505.042027525391</v>
+        <v>1243.690708883648</v>
       </c>
       <c r="Y8" t="n">
-        <v>1114.902695549579</v>
+        <v>853.5513769078361</v>
       </c>
     </row>
     <row r="9">
@@ -4877,31 +4877,31 @@
         <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>423.148951518066</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495378</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M9" t="n">
-        <v>1081.114527508758</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1468.399656105703</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
-        <v>1800.470091281865</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434119</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>642.7634789947318</v>
+        <v>53.04593830764924</v>
       </c>
       <c r="C10" t="n">
-        <v>473.8272960668249</v>
+        <v>53.04593830764924</v>
       </c>
       <c r="D10" t="n">
-        <v>473.8272960668249</v>
+        <v>53.04593830764924</v>
       </c>
       <c r="E10" t="n">
-        <v>473.8272960668249</v>
+        <v>53.04593830764924</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>53.04593830764924</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4992,22 +4992,22 @@
         <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1337.233965749941</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1337.233965749941</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V10" t="n">
-        <v>1337.233965749941</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W10" t="n">
-        <v>1052.401494722989</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="X10" t="n">
-        <v>824.4119438249716</v>
+        <v>53.04593830764924</v>
       </c>
       <c r="Y10" t="n">
-        <v>824.4119438249716</v>
+        <v>53.04593830764924</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1712.341567565138</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C11" t="n">
-        <v>1343.379050624726</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D11" t="n">
-        <v>1206.953318337195</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E11" t="n">
-        <v>821.1650657389509</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001388</v>
@@ -5056,37 +5056,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U11" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V11" t="n">
-        <v>3215.315153136266</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W11" t="n">
-        <v>2862.546497866151</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X11" t="n">
-        <v>2489.080739605071</v>
+        <v>1980.653821343009</v>
       </c>
       <c r="Y11" t="n">
-        <v>2098.94140762926</v>
+        <v>1590.514489367197</v>
       </c>
     </row>
     <row r="12">
@@ -5114,10 +5114,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>944.7237329438971</v>
+        <v>774.7644039315074</v>
       </c>
       <c r="C13" t="n">
-        <v>775.7875500159902</v>
+        <v>774.7644039315074</v>
       </c>
       <c r="D13" t="n">
-        <v>625.6709106036544</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E13" t="n">
-        <v>477.7578170212613</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F13" t="n">
         <v>477.7578170212613</v>
@@ -5196,7 +5196,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
         <v>111.6347488791189</v>
@@ -5235,16 +5235,16 @@
         <v>1927.294548088492</v>
       </c>
       <c r="V13" t="n">
-        <v>1864.571497852645</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="W13" t="n">
-        <v>1575.154327815684</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X13" t="n">
-        <v>1347.164776917667</v>
+        <v>1177.205447905277</v>
       </c>
       <c r="Y13" t="n">
-        <v>1126.372197774137</v>
+        <v>956.4128687617472</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1844.338003964587</v>
+        <v>1636.597933493125</v>
       </c>
       <c r="C14" t="n">
-        <v>1844.338003964587</v>
+        <v>1267.635416552713</v>
       </c>
       <c r="D14" t="n">
-        <v>1486.072305357836</v>
+        <v>909.3697179459625</v>
       </c>
       <c r="E14" t="n">
-        <v>1100.284052759592</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F14" t="n">
-        <v>689.2981479699843</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V14" t="n">
-        <v>2994.5429342656</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W14" t="n">
-        <v>2994.5429342656</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="X14" t="n">
-        <v>2621.07717600452</v>
+        <v>2051.278283189672</v>
       </c>
       <c r="Y14" t="n">
-        <v>2230.937844028708</v>
+        <v>1661.138951213861</v>
       </c>
     </row>
     <row r="15">
@@ -5351,10 +5351,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>944.7237329438971</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="C16" t="n">
-        <v>775.7875500159902</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="D16" t="n">
-        <v>625.6709106036544</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E16" t="n">
-        <v>477.7578170212613</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
         <v>111.6347488791189</v>
@@ -5463,25 +5463,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T16" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U16" t="n">
-        <v>1927.294548088492</v>
+        <v>1446.505797040962</v>
       </c>
       <c r="V16" t="n">
-        <v>1864.571497852645</v>
+        <v>1191.821308835075</v>
       </c>
       <c r="W16" t="n">
-        <v>1575.154327815684</v>
+        <v>902.4041387981144</v>
       </c>
       <c r="X16" t="n">
-        <v>1347.164776917667</v>
+        <v>689.1808091248688</v>
       </c>
       <c r="Y16" t="n">
-        <v>1126.372197774137</v>
+        <v>689.1808091248688</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1575.942324366272</v>
+        <v>2034.604709474941</v>
       </c>
       <c r="C17" t="n">
-        <v>1575.942324366272</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D17" t="n">
-        <v>1575.942324366272</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E17" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F17" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G17" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W17" t="n">
-        <v>2071.975386180639</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="X17" t="n">
-        <v>1698.509627919559</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="Y17" t="n">
-        <v>1575.942324366272</v>
+        <v>2034.604709474941</v>
       </c>
     </row>
     <row r="18">
@@ -5591,16 +5591,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5609,7 +5609,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P18" t="n">
         <v>2407.41198488674</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>463.6594280995009</v>
+        <v>677.4387267498528</v>
       </c>
       <c r="C19" t="n">
-        <v>294.723245171594</v>
+        <v>677.4387267498528</v>
       </c>
       <c r="D19" t="n">
-        <v>144.6066057592583</v>
+        <v>527.322087337517</v>
       </c>
       <c r="E19" t="n">
-        <v>66.51211643218342</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218342</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J19" t="n">
         <v>111.6347488791189</v>
@@ -5679,19 +5679,19 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760404</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P19" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q19" t="n">
         <v>1927.294548088492</v>
@@ -5703,22 +5703,22 @@
         <v>1927.294548088492</v>
       </c>
       <c r="T19" t="n">
-        <v>1927.294548088492</v>
+        <v>1738.632802765074</v>
       </c>
       <c r="U19" t="n">
-        <v>1638.191681214136</v>
+        <v>1449.529935890718</v>
       </c>
       <c r="V19" t="n">
-        <v>1383.507193008249</v>
+        <v>1194.845447684831</v>
       </c>
       <c r="W19" t="n">
-        <v>1094.090022971288</v>
+        <v>905.4282776478701</v>
       </c>
       <c r="X19" t="n">
-        <v>866.1004720732708</v>
+        <v>677.4387267498528</v>
       </c>
       <c r="Y19" t="n">
-        <v>645.3078929297407</v>
+        <v>677.4387267498528</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2345.167438673965</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="C20" t="n">
-        <v>1976.204921733553</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D20" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E20" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F20" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H20" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001388</v>
@@ -5767,37 +5767,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P20" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U20" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V20" t="n">
-        <v>3325.605821609171</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W20" t="n">
-        <v>3325.605821609171</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X20" t="n">
-        <v>3121.906610713899</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y20" t="n">
-        <v>2731.767278738087</v>
+        <v>1904.487375535336</v>
       </c>
     </row>
     <row r="21">
@@ -5807,52 +5807,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R21" t="n">
         <v>2564.909189125856</v>
@@ -5864,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5873,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1065.68718486776</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C22" t="n">
-        <v>896.7510019398528</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D22" t="n">
-        <v>746.6343625275171</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E22" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F22" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G22" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H22" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J22" t="n">
         <v>111.6347488791189</v>
@@ -5934,28 +5934,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S22" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T22" t="n">
-        <v>1837.46409084602</v>
+        <v>1794.299215532023</v>
       </c>
       <c r="U22" t="n">
-        <v>1548.361223971664</v>
+        <v>1505.196348657667</v>
       </c>
       <c r="V22" t="n">
-        <v>1293.676735765777</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="W22" t="n">
-        <v>1293.676735765777</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="X22" t="n">
-        <v>1065.68718486776</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y22" t="n">
-        <v>1065.68718486776</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1892.184635123826</v>
+        <v>2029.57251526313</v>
       </c>
       <c r="C23" t="n">
-        <v>1523.222118183415</v>
+        <v>1660.609998322718</v>
       </c>
       <c r="D23" t="n">
-        <v>1164.956419576664</v>
+        <v>1302.344299715968</v>
       </c>
       <c r="E23" t="n">
-        <v>779.1681669784198</v>
+        <v>916.5560471177234</v>
       </c>
       <c r="F23" t="n">
-        <v>779.1681669784198</v>
+        <v>505.5701423281159</v>
       </c>
       <c r="G23" t="n">
-        <v>364.0957168234162</v>
+        <v>90.49769217311234</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K23" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U23" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V23" t="n">
-        <v>2994.542934265599</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W23" t="n">
-        <v>2641.774278995485</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X23" t="n">
-        <v>2641.774278995485</v>
+        <v>2029.57251526313</v>
       </c>
       <c r="Y23" t="n">
-        <v>2278.784475187948</v>
+        <v>2029.57251526313</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228007</v>
@@ -6080,40 +6080,40 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O24" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S24" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T24" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W24" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1091.613680441807</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C25" t="n">
-        <v>922.6774975139006</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D25" t="n">
-        <v>772.5608581015648</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E25" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F25" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G25" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H25" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
         <v>111.6347488791189</v>
@@ -6171,28 +6171,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R25" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S25" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T25" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U25" t="n">
-        <v>1134.908724368016</v>
+        <v>1708.010285469454</v>
       </c>
       <c r="V25" t="n">
-        <v>1134.908724368016</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="W25" t="n">
-        <v>1134.908724368016</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X25" t="n">
-        <v>1134.908724368016</v>
+        <v>935.919076328589</v>
       </c>
       <c r="Y25" t="n">
-        <v>1134.908724368016</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1506.396382525582</v>
+        <v>1311.909787855436</v>
       </c>
       <c r="C26" t="n">
-        <v>1137.43386558517</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D26" t="n">
-        <v>779.1681669784198</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E26" t="n">
-        <v>779.1681669784198</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F26" t="n">
-        <v>779.1681669784198</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G26" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H26" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810562</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O26" t="n">
         <v>2623.528026939507</v>
@@ -6247,31 +6247,31 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R26" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3262.900444822873</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T26" t="n">
-        <v>3262.900444822873</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U26" t="n">
-        <v>3009.369968096709</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V26" t="n">
-        <v>3009.369968096709</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W26" t="n">
-        <v>2656.601312826595</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X26" t="n">
-        <v>2283.135554565515</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y26" t="n">
-        <v>1892.996222589704</v>
+        <v>1698.509627919558</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J27" t="n">
         <v>160.1893859228007</v>
@@ -6317,7 +6317,7 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O27" t="n">
         <v>2096.912393410638</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>753.0765981364616</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C28" t="n">
-        <v>584.1404152085547</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D28" t="n">
-        <v>584.1404152085547</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E28" t="n">
-        <v>527.322087337517</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F28" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G28" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J28" t="n">
         <v>111.6347488791189</v>
@@ -6411,25 +6411,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S28" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T28" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U28" t="n">
-        <v>1638.191681214136</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="V28" t="n">
-        <v>1383.507193008249</v>
+        <v>1480.924175709432</v>
       </c>
       <c r="W28" t="n">
-        <v>1383.507193008249</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X28" t="n">
-        <v>1155.517642110231</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y28" t="n">
-        <v>934.7250629667013</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1619.798686923957</v>
+        <v>1569.101759311879</v>
       </c>
       <c r="C29" t="n">
-        <v>1250.836169983545</v>
+        <v>1200.139242371467</v>
       </c>
       <c r="D29" t="n">
-        <v>892.5704713767946</v>
+        <v>841.8735437647167</v>
       </c>
       <c r="E29" t="n">
-        <v>892.5704713767946</v>
+        <v>456.0852911664725</v>
       </c>
       <c r="F29" t="n">
-        <v>481.5845665871869</v>
+        <v>456.0852911664725</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K29" t="n">
         <v>589.2106210810557</v>
@@ -6472,43 +6472,43 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q29" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U29" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V29" t="n">
-        <v>2424.744041450753</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="W29" t="n">
-        <v>2071.975386180639</v>
+        <v>2719.306689612892</v>
       </c>
       <c r="X29" t="n">
-        <v>2071.975386180639</v>
+        <v>2345.840931351812</v>
       </c>
       <c r="Y29" t="n">
-        <v>1681.836054204827</v>
+        <v>1955.701599376001</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
@@ -6560,10 +6560,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q30" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R30" t="n">
         <v>2564.909189125856</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>531.3099827059877</v>
+        <v>538.8965081646984</v>
       </c>
       <c r="C31" t="n">
-        <v>362.3737997780809</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D31" t="n">
-        <v>362.3737997780809</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E31" t="n">
-        <v>362.3737997780809</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F31" t="n">
-        <v>362.3737997780809</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G31" t="n">
-        <v>194.6709631527998</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
         <v>111.6347488791189</v>
@@ -6645,28 +6645,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R31" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S31" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T31" t="n">
-        <v>1705.527932658018</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U31" t="n">
-        <v>1416.425065783662</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V31" t="n">
-        <v>1161.740577577775</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W31" t="n">
-        <v>1161.740577577775</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="X31" t="n">
-        <v>933.7510266797576</v>
+        <v>941.3375521384683</v>
       </c>
       <c r="Y31" t="n">
-        <v>712.9584475362275</v>
+        <v>720.5449729949381</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1506.396382525582</v>
+        <v>2065.110222835252</v>
       </c>
       <c r="C32" t="n">
-        <v>1137.43386558517</v>
+        <v>1696.14770589484</v>
       </c>
       <c r="D32" t="n">
-        <v>779.1681669784198</v>
+        <v>1337.88200728809</v>
       </c>
       <c r="E32" t="n">
-        <v>779.1681669784198</v>
+        <v>952.0937546898456</v>
       </c>
       <c r="F32" t="n">
-        <v>779.1681669784198</v>
+        <v>541.1078499002381</v>
       </c>
       <c r="G32" t="n">
-        <v>364.0957168234162</v>
+        <v>126.0353997452345</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K32" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U32" t="n">
-        <v>2866.097597267228</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V32" t="n">
-        <v>2535.034709923657</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W32" t="n">
-        <v>2182.266054653543</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X32" t="n">
-        <v>1808.800296392463</v>
+        <v>2841.849394875186</v>
       </c>
       <c r="Y32" t="n">
-        <v>1506.396382525582</v>
+        <v>2451.710062899374</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1611.713337450771</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C34" t="n">
-        <v>1611.713337450771</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D34" t="n">
-        <v>1611.713337450771</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E34" t="n">
-        <v>1611.713337450771</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F34" t="n">
-        <v>1464.82338995286</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G34" t="n">
-        <v>1464.82338995286</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H34" t="n">
-        <v>1464.82338995286</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I34" t="n">
-        <v>1464.82338995286</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
-        <v>1509.946022399796</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K34" t="n">
-        <v>1713.933205348672</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L34" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M34" t="n">
-        <v>2374.650049396717</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N34" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O34" t="n">
-        <v>3015.388025022995</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P34" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R34" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S34" t="n">
-        <v>3133.919937435996</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T34" t="n">
-        <v>2912.153322005522</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U34" t="n">
-        <v>2623.050455131166</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="V34" t="n">
-        <v>2368.365966925279</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="W34" t="n">
-        <v>2078.948796888318</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X34" t="n">
-        <v>1850.959245990301</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y34" t="n">
-        <v>1630.166666846771</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="35">
@@ -6928,52 +6928,52 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V35" t="n">
-        <v>2994.5429342656</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W35" t="n">
         <v>2797.526171216464</v>
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L36" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7049,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7058,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>234.2149530574645</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="C37" t="n">
-        <v>234.2149530574645</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D37" t="n">
-        <v>234.2149530574645</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E37" t="n">
-        <v>234.2149530574645</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F37" t="n">
-        <v>234.2149530574645</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J37" t="n">
         <v>111.6347488791189</v>
@@ -7122,25 +7122,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S37" t="n">
-        <v>1737.96822364669</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T37" t="n">
-        <v>1516.201608216216</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U37" t="n">
-        <v>1227.09874134186</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V37" t="n">
-        <v>972.4142531359726</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W37" t="n">
-        <v>682.9970830990119</v>
+        <v>872.3234075408143</v>
       </c>
       <c r="X37" t="n">
-        <v>455.0075322009945</v>
+        <v>644.3338566427969</v>
       </c>
       <c r="Y37" t="n">
-        <v>234.2149530574645</v>
+        <v>529.0179941377679</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>921.7704558796247</v>
+        <v>1548.393281286113</v>
       </c>
       <c r="C38" t="n">
-        <v>552.807938939213</v>
+        <v>1179.430764345701</v>
       </c>
       <c r="D38" t="n">
-        <v>452.3003690304276</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="E38" t="n">
-        <v>66.51211643218339</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F38" t="n">
-        <v>66.51211643218339</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218339</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K38" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V38" t="n">
-        <v>2424.744041450752</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W38" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X38" t="n">
-        <v>1698.509627919558</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y38" t="n">
-        <v>1308.370295943746</v>
+        <v>1548.393281286113</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G39" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L39" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
         <v>2565.053542533341</v>
@@ -7286,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7295,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1464.82338995286</v>
+        <v>701.1808689801002</v>
       </c>
       <c r="C40" t="n">
-        <v>1464.82338995286</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D40" t="n">
-        <v>1464.82338995286</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E40" t="n">
-        <v>1464.82338995286</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F40" t="n">
-        <v>1464.82338995286</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G40" t="n">
-        <v>1464.82338995286</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H40" t="n">
-        <v>1464.82338995286</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>1464.82338995286</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>1713.933205348672</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L40" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>2374.650049396717</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N40" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O40" t="n">
-        <v>3015.388025022995</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P40" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>3133.919937435996</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T40" t="n">
-        <v>2912.153322005522</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U40" t="n">
-        <v>2623.050455131166</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V40" t="n">
-        <v>2368.365966925279</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W40" t="n">
-        <v>2078.948796888318</v>
+        <v>929.1704198781175</v>
       </c>
       <c r="X40" t="n">
-        <v>1850.959245990301</v>
+        <v>701.1808689801002</v>
       </c>
       <c r="Y40" t="n">
-        <v>1630.166666846771</v>
+        <v>701.1808689801002</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2005.586939522201</v>
+        <v>1559.116588708439</v>
       </c>
       <c r="C41" t="n">
-        <v>1636.624422581789</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="D41" t="n">
-        <v>1278.358723975039</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E41" t="n">
-        <v>892.5704713767946</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F41" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218339</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3241.834335904076</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3035.856588288298</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>2782.326111562134</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V41" t="n">
-        <v>2782.326111562134</v>
+        <v>3062.090174279567</v>
       </c>
       <c r="W41" t="n">
-        <v>2782.326111562134</v>
+        <v>2709.321519009452</v>
       </c>
       <c r="X41" t="n">
-        <v>2782.326111562134</v>
+        <v>2335.855760748373</v>
       </c>
       <c r="Y41" t="n">
-        <v>2392.186779586323</v>
+        <v>1945.716428772561</v>
       </c>
     </row>
     <row r="42">
@@ -7484,19 +7484,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7508,7 +7508,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1091.613680441807</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="C43" t="n">
-        <v>922.6774975139006</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="D43" t="n">
-        <v>772.5608581015648</v>
+        <v>494.2172172304616</v>
       </c>
       <c r="E43" t="n">
-        <v>624.6477645191717</v>
+        <v>346.3041236480685</v>
       </c>
       <c r="F43" t="n">
-        <v>477.7578170212613</v>
+        <v>199.4141761501582</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
@@ -7590,31 +7590,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1722.044275313594</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T43" t="n">
-        <v>1722.044275313594</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U43" t="n">
-        <v>1722.044275313594</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V43" t="n">
-        <v>1722.044275313594</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W43" t="n">
-        <v>1722.044275313594</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X43" t="n">
-        <v>1494.054724415577</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y43" t="n">
-        <v>1273.262145272047</v>
+        <v>644.3338566427974</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1878.169188758593</v>
+        <v>1594.601034732593</v>
       </c>
       <c r="C44" t="n">
-        <v>1509.206671818181</v>
+        <v>1225.638517792182</v>
       </c>
       <c r="D44" t="n">
-        <v>1150.940973211431</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="E44" t="n">
-        <v>1150.940973211431</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F44" t="n">
-        <v>739.9550684218234</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G44" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V44" t="n">
-        <v>2994.542934265599</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W44" t="n">
-        <v>2641.774278995485</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X44" t="n">
-        <v>2268.308520734405</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y44" t="n">
-        <v>1878.169188758593</v>
+        <v>1594.601034732593</v>
       </c>
     </row>
     <row r="45">
@@ -7718,22 +7718,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7742,10 +7742,10 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
         <v>2565.053542533341</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>607.0615673062264</v>
+        <v>271.9735439263277</v>
       </c>
       <c r="C46" t="n">
-        <v>607.0615673062264</v>
+        <v>271.9735439263277</v>
       </c>
       <c r="D46" t="n">
-        <v>456.9449278938906</v>
+        <v>121.856904513992</v>
       </c>
       <c r="E46" t="n">
-        <v>456.9449278938906</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F46" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G46" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H46" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O46" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P46" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1661.058671566961</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1661.058671566961</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U46" t="n">
-        <v>1371.955804692604</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V46" t="n">
-        <v>1117.271316486717</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W46" t="n">
-        <v>827.8541464497565</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="X46" t="n">
-        <v>827.8541464497565</v>
+        <v>674.4145879000976</v>
       </c>
       <c r="Y46" t="n">
-        <v>607.0615673062264</v>
+        <v>453.6220087565674</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>99.37288961069086</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>97.32166909127264</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>25.82445471158033</v>
+        <v>25.82445471157925</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>93.97749048397117</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8309,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>181.3506708776263</v>
       </c>
       <c r="P6" t="n">
-        <v>65.05511571131254</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>45.32591189688974</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>193.3273467878355</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.119104808822158e-12</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22555,10 +22555,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>137.0854724437116</v>
       </c>
       <c r="F2" t="n">
-        <v>314.7988413123832</v>
+        <v>143.1621657402052</v>
       </c>
       <c r="G2" t="n">
         <v>412.83417464571</v>
@@ -22597,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
@@ -22606,10 +22606,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862865</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>85.52708871590676</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22631,22 +22631,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37.90076397759064</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22682,16 +22682,16 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>87.19386807924951</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22710,25 +22710,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>1.042860059625298</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22752,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>109.3588360896963</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
@@ -22761,16 +22761,16 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117128</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>22.8091183350848</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -22798,13 +22798,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>393.1366692001588</v>
+        <v>412.2818458970816</v>
       </c>
       <c r="H5" t="n">
-        <v>308.537095832377</v>
+        <v>208.7319315286924</v>
       </c>
       <c r="I5" t="n">
-        <v>94.01296546539919</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>140.1815018398513</v>
       </c>
       <c r="T5" t="n">
         <v>209.8718965061022</v>
@@ -22843,13 +22843,13 @@
         <v>251.1039815783922</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22880,10 +22880,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.62520054253658</v>
+        <v>96.62520054253649</v>
       </c>
       <c r="I6" t="n">
-        <v>33.74703566813393</v>
+        <v>33.74703566813361</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22913,22 +22913,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.6607451075072</v>
+        <v>141.660745107507</v>
       </c>
       <c r="T6" t="n">
-        <v>193.6498268080146</v>
+        <v>193.6498268080145</v>
       </c>
       <c r="U6" t="n">
         <v>225.8350452710705</v>
       </c>
       <c r="V6" t="n">
-        <v>20.62209019526762</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>20.62209019524843</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -22941,10 +22941,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -22953,16 +22953,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>64.76815712189517</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6359113765081</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.1793862679148</v>
       </c>
       <c r="I7" t="n">
-        <v>114.6998850700521</v>
+        <v>114.6998850700519</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,22 +22989,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.3646073887349</v>
+        <v>116.3646073887346</v>
       </c>
       <c r="S7" t="n">
-        <v>200.4014587515236</v>
+        <v>200.4014587515235</v>
       </c>
       <c r="T7" t="n">
-        <v>222.1557535054015</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>16.26940533978842</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23023,10 +23023,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>49.67042516341098</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23035,13 +23035,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,13 +23071,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -23086,7 +23086,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>115.7596600719313</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23178,10 +23178,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -23193,13 +23193,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5254398225545</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23232,16 +23232,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>4.538852019908632</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>219.6215666560273</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,16 +23314,16 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>75.40478134959625</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>190.041823590339</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>21.78208786807335</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>358.4382341199518</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23506,13 +23506,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>130.5482485912771</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>190.041823590339</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>14.61855901252397</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23734,10 +23734,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>12.84933751971363</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23794,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>264.896308138299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>69.12041821276503</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983812</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>32.77382140598604</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>141.6654981199222</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>168.06888189215</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,7 +24135,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>25.66723061830726</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>87.88357004526506</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24217,13 +24217,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>270.8620444038008</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>26.87803288659234</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>136.9698866949908</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>69.12041821276489</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24445,25 +24445,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>317.3955842695693</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.10943876974166</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>90.18381805424185</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983812</v>
@@ -24651,19 +24651,19 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>118.0986533615251</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>321.3168480554187</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24688,16 +24688,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>319.8520470538277</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>140.0567569711508</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>114.2301770707487</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24925,16 +24925,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>235.6797139073998</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>86.8580639278411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>161.5631840798972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25125,19 +25125,19 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>61.76674224145228</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25216,7 +25216,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>154.1943732987684</v>
+        <v>154.1943732987693</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25320,10 +25320,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>2.335964134057321</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>104.4219494721161</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>255.1805474109854</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>237.6227554889416</v>
       </c>
     </row>
     <row r="39">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.14213605696608</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>56.27854221392971</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25633,10 +25633,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>26.25399094013308</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>66.87176761382625</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>34.45276913823324</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>75.50340795434026</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25873,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>38.82096757103039</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>283.368431400957</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>91.64262244557872</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>15.12766024517347</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>631810.0895290306</v>
+        <v>631810.0895290338</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>780582.8535323237</v>
+        <v>780582.8535323238</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>860422.018972462</v>
+        <v>860422.0189724619</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>860422.018972462</v>
+        <v>860422.0189724617</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>860422.0189724622</v>
+        <v>860422.0189724619</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>860422.0189724619</v>
+        <v>860422.0189724618</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>860422.018972462</v>
+        <v>860422.0189724619</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>860422.0189724618</v>
+        <v>860422.0189724622</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>860422.0189724618</v>
+        <v>860422.018972462</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>860422.018972462</v>
+        <v>860422.0189724622</v>
       </c>
     </row>
     <row r="16">
@@ -26316,46 +26316,46 @@
         <v>203966.5811971124</v>
       </c>
       <c r="C2" t="n">
-        <v>247461.8373661088</v>
+        <v>247461.8373661103</v>
       </c>
       <c r="D2" t="n">
-        <v>305971.6304943086</v>
+        <v>305971.6304943087</v>
       </c>
       <c r="E2" t="n">
-        <v>340997.0989709208</v>
+        <v>340997.0989709205</v>
       </c>
       <c r="F2" t="n">
-        <v>340997.0989709205</v>
+        <v>340997.0989709207</v>
       </c>
       <c r="G2" t="n">
         <v>340997.0989709207</v>
       </c>
       <c r="H2" t="n">
+        <v>340997.0989709207</v>
+      </c>
+      <c r="I2" t="n">
+        <v>340997.0989709206</v>
+      </c>
+      <c r="J2" t="n">
+        <v>340997.0989709207</v>
+      </c>
+      <c r="K2" t="n">
         <v>340997.0989709205</v>
       </c>
-      <c r="I2" t="n">
-        <v>340997.0989709204</v>
-      </c>
-      <c r="J2" t="n">
-        <v>340997.0989709206</v>
-      </c>
-      <c r="K2" t="n">
-        <v>340997.0989709207</v>
-      </c>
       <c r="L2" t="n">
-        <v>340997.0989709206</v>
+        <v>340997.0989709205</v>
       </c>
       <c r="M2" t="n">
         <v>340997.0989709205</v>
       </c>
       <c r="N2" t="n">
-        <v>340997.0989709205</v>
+        <v>340997.0989709207</v>
       </c>
       <c r="O2" t="n">
         <v>340997.0989709206</v>
       </c>
       <c r="P2" t="n">
-        <v>340997.0989709205</v>
+        <v>340997.0989709207</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>176672.6241739455</v>
+        <v>176672.6241739511</v>
       </c>
       <c r="D3" t="n">
-        <v>223886.3093819117</v>
+        <v>223886.3093819066</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171904</v>
+        <v>182072.9798171903</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,25 +26383,25 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911413</v>
+        <v>68999.15441911403</v>
       </c>
       <c r="K3" t="n">
-        <v>41076.98154640703</v>
+        <v>41076.98154640829</v>
       </c>
       <c r="L3" t="n">
-        <v>54988.29121946913</v>
+        <v>54988.29121946797</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341491</v>
+        <v>47552.26579341477</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>11859.77526465972</v>
       </c>
       <c r="C4" t="n">
-        <v>13508.12565950898</v>
+        <v>13508.12565950903</v>
       </c>
       <c r="D4" t="n">
-        <v>16175.59256035158</v>
+        <v>16175.59256035156</v>
       </c>
       <c r="E4" t="n">
         <v>8550.515172066873</v>
@@ -26432,19 +26432,19 @@
         <v>8550.515172066873</v>
       </c>
       <c r="G4" t="n">
+        <v>8550.51517206688</v>
+      </c>
+      <c r="H4" t="n">
         <v>8550.515172066873</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>8550.515172066862</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8550.515172066876</v>
       </c>
       <c r="J4" t="n">
         <v>8550.515172066862</v>
       </c>
       <c r="K4" t="n">
-        <v>8550.515172066873</v>
+        <v>8550.515172066862</v>
       </c>
       <c r="L4" t="n">
         <v>8550.515172066862</v>
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>75746.87167923083</v>
+        <v>75746.87167923123</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
+        <v>74306.34056139327</v>
+      </c>
+      <c r="F5" t="n">
+        <v>74306.34056139327</v>
+      </c>
+      <c r="G5" t="n">
+        <v>74306.34056139327</v>
+      </c>
+      <c r="H5" t="n">
+        <v>74306.34056139327</v>
+      </c>
+      <c r="I5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="F5" t="n">
+      <c r="J5" t="n">
+        <v>74306.34056139327</v>
+      </c>
+      <c r="K5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="L5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="G5" t="n">
+      <c r="M5" t="n">
+        <v>74306.34056139327</v>
+      </c>
+      <c r="N5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="H5" t="n">
+      <c r="O5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="I5" t="n">
-        <v>74306.34056139327</v>
-      </c>
-      <c r="J5" t="n">
-        <v>74306.34056139328</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="P5" t="n">
         <v>74306.3405613933</v>
-      </c>
-      <c r="L5" t="n">
-        <v>74306.34056139327</v>
-      </c>
-      <c r="M5" t="n">
-        <v>74306.3405613933</v>
-      </c>
-      <c r="N5" t="n">
-        <v>74306.34056139327</v>
-      </c>
-      <c r="O5" t="n">
-        <v>74306.34056139327</v>
-      </c>
-      <c r="P5" t="n">
-        <v>74306.34056139327</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-551028.9778630066</v>
+        <v>-561356.693049758</v>
       </c>
       <c r="C6" t="n">
-        <v>-18465.78414657651</v>
+        <v>-26618.73652488269</v>
       </c>
       <c r="D6" t="n">
-        <v>-27028.04388779939</v>
+        <v>-32255.50660968582</v>
       </c>
       <c r="E6" t="n">
-        <v>76067.26342027017</v>
+        <v>72591.074122209</v>
       </c>
       <c r="F6" t="n">
-        <v>258140.2432374604</v>
+        <v>254664.0539393995</v>
       </c>
       <c r="G6" t="n">
-        <v>258140.2432374606</v>
+        <v>254664.0539393995</v>
       </c>
       <c r="H6" t="n">
-        <v>258140.2432374604</v>
+        <v>254664.0539393993</v>
       </c>
       <c r="I6" t="n">
-        <v>258140.2432374602</v>
+        <v>254664.0539393994</v>
       </c>
       <c r="J6" t="n">
-        <v>189141.0888183463</v>
+        <v>185664.8995202855</v>
       </c>
       <c r="K6" t="n">
-        <v>217063.2616910535</v>
+        <v>213587.0723929911</v>
       </c>
       <c r="L6" t="n">
-        <v>203151.9520179914</v>
+        <v>199675.7627199313</v>
       </c>
       <c r="M6" t="n">
-        <v>210587.9774440455</v>
+        <v>207111.7881459845</v>
       </c>
       <c r="N6" t="n">
-        <v>258140.2432374604</v>
+        <v>254664.0539393993</v>
       </c>
       <c r="O6" t="n">
-        <v>258140.2432374605</v>
+        <v>254664.0539393994</v>
       </c>
       <c r="P6" t="n">
-        <v>258140.2432374605</v>
+        <v>254664.0539393995</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>751.4467899908026</v>
+        <v>751.4467899908069</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>423.3179548919628</v>
+        <v>423.3179548919677</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="F4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="G4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="H4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="I4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="F4" t="n">
+      <c r="J4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="K4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="L4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="G4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="M4" t="n">
         <v>831.4014554022924</v>
       </c>
-      <c r="J4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="K4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="L4" t="n">
-        <v>831.4014554022924</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="N4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>137.3917762213243</v>
+        <v>137.3917762213287</v>
       </c>
       <c r="D3" t="n">
-        <v>182.6181021267366</v>
+        <v>182.6181021267324</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757589</v>
+        <v>155.7118084757587</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>159.6040748904565</v>
+        <v>159.6040748904614</v>
       </c>
       <c r="D4" t="n">
-        <v>217.2668772080761</v>
+        <v>217.2668772080712</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015064</v>
+        <v>263.713880001506</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904566</v>
+        <v>159.6040748904615</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080759</v>
+        <v>217.2668772080713</v>
       </c>
       <c r="M4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022534</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904565</v>
+        <v>159.6040748904614</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080761</v>
+        <v>217.2668772080712</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31077,7 +31077,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31126,16 +31126,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31144,25 +31144,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,16 +31202,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31223,25 +31223,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.020891618053475</v>
+        <v>3.020891618053493</v>
       </c>
       <c r="H5" t="n">
-        <v>30.93770628339016</v>
+        <v>30.93770628339034</v>
       </c>
       <c r="I5" t="n">
-        <v>116.4629241050067</v>
+        <v>116.4629241050074</v>
       </c>
       <c r="J5" t="n">
-        <v>256.3943999677664</v>
+        <v>256.3943999677679</v>
       </c>
       <c r="K5" t="n">
-        <v>384.2687421599701</v>
+        <v>384.2687421599723</v>
       </c>
       <c r="L5" t="n">
-        <v>476.7193540159743</v>
+        <v>476.719354015977</v>
       </c>
       <c r="M5" t="n">
-        <v>530.4421353285327</v>
+        <v>530.4421353285358</v>
       </c>
       <c r="N5" t="n">
-        <v>539.0252436383272</v>
+        <v>539.0252436383303</v>
       </c>
       <c r="O5" t="n">
-        <v>508.9862526113079</v>
+        <v>508.9862526113108</v>
       </c>
       <c r="P5" t="n">
-        <v>434.4079907906126</v>
+        <v>434.4079907906151</v>
       </c>
       <c r="Q5" t="n">
-        <v>326.2223097190725</v>
+        <v>326.2223097190744</v>
       </c>
       <c r="R5" t="n">
-        <v>189.7610831025518</v>
+        <v>189.7610831025529</v>
       </c>
       <c r="S5" t="n">
-        <v>68.83856774639364</v>
+        <v>68.83856774639403</v>
       </c>
       <c r="T5" t="n">
-        <v>13.2239530580291</v>
+        <v>13.22395305802917</v>
       </c>
       <c r="U5" t="n">
-        <v>0.241671329444278</v>
+        <v>0.2416713294442794</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.616319510546255</v>
+        <v>1.616319510546264</v>
       </c>
       <c r="H6" t="n">
-        <v>15.61024369395988</v>
+        <v>15.61024369395997</v>
       </c>
       <c r="I6" t="n">
-        <v>55.64959718328114</v>
+        <v>55.64959718328146</v>
       </c>
       <c r="J6" t="n">
-        <v>152.7067481433196</v>
+        <v>152.7067481433205</v>
       </c>
       <c r="K6" t="n">
-        <v>261.0001553499187</v>
+        <v>261.0001553499202</v>
       </c>
       <c r="L6" t="n">
-        <v>350.9469182876857</v>
+        <v>350.9469182876878</v>
       </c>
       <c r="M6" t="n">
-        <v>409.5385005449874</v>
+        <v>409.5385005449897</v>
       </c>
       <c r="N6" t="n">
-        <v>420.3777660345717</v>
+        <v>420.3777660345742</v>
       </c>
       <c r="O6" t="n">
-        <v>384.5635284587837</v>
+        <v>384.5635284587859</v>
       </c>
       <c r="P6" t="n">
-        <v>308.6461353077318</v>
+        <v>308.6461353077335</v>
       </c>
       <c r="Q6" t="n">
-        <v>206.3217676970974</v>
+        <v>206.3217676970986</v>
       </c>
       <c r="R6" t="n">
-        <v>100.3535920670736</v>
+        <v>100.3535920670742</v>
       </c>
       <c r="S6" t="n">
-        <v>30.02242599633063</v>
+        <v>30.0224259963308</v>
       </c>
       <c r="T6" t="n">
-        <v>6.51490188680705</v>
+        <v>6.514901886807087</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1063368099043589</v>
+        <v>0.1063368099043595</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.355067981950627</v>
+        <v>1.355067981950635</v>
       </c>
       <c r="H7" t="n">
-        <v>12.04778623952468</v>
+        <v>12.04778623952475</v>
       </c>
       <c r="I7" t="n">
-        <v>40.75058985720616</v>
+        <v>40.75058985720639</v>
       </c>
       <c r="J7" t="n">
-        <v>95.80330632390935</v>
+        <v>95.80330632390991</v>
       </c>
       <c r="K7" t="n">
-        <v>157.434261902991</v>
+        <v>157.4342619029919</v>
       </c>
       <c r="L7" t="n">
-        <v>201.4616525165506</v>
+        <v>201.4616525165518</v>
       </c>
       <c r="M7" t="n">
-        <v>212.4130655706788</v>
+        <v>212.41306557068</v>
       </c>
       <c r="N7" t="n">
-        <v>207.3623576379539</v>
+        <v>207.3623576379551</v>
       </c>
       <c r="O7" t="n">
-        <v>191.5326998488033</v>
+        <v>191.5326998488044</v>
       </c>
       <c r="P7" t="n">
-        <v>163.8893130170104</v>
+        <v>163.8893130170113</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.4684652886112</v>
+        <v>113.4684652886118</v>
       </c>
       <c r="R7" t="n">
-        <v>60.92878398843456</v>
+        <v>60.92878398843492</v>
       </c>
       <c r="S7" t="n">
-        <v>23.61513928544865</v>
+        <v>23.61513928544879</v>
       </c>
       <c r="T7" t="n">
-        <v>5.789835922879952</v>
+        <v>5.789835922879986</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07391279901548886</v>
+        <v>0.07391279901548928</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31530,16 +31530,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31551,7 +31551,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31600,7 +31600,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31612,16 +31612,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31706,7 +31706,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31715,7 +31715,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I17" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R17" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,37 +32305,37 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H18" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J18" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32344,7 +32344,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32393,16 +32393,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L19" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N19" t="n">
         <v>300.7247737883114</v>
@@ -32411,19 +32411,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q19" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S19" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780294</v>
@@ -32797,7 +32797,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N24" t="n">
         <v>609.6478166837924</v>
@@ -33037,10 +33037,10 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P27" t="n">
         <v>447.6103584002926</v>
@@ -33277,7 +33277,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P30" t="n">
         <v>447.6103584002926</v>
@@ -33514,10 +33514,10 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987486</v>
@@ -33748,7 +33748,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
         <v>557.7086478970249</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987499</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.3216690912726</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>245.5483596572289</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34798,7 +34798,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34877,7 +34877,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>75.3484954410801</v>
+        <v>75.34849544108158</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1788911149895</v>
+        <v>164.1788911149918</v>
       </c>
       <c r="L5" t="n">
-        <v>240.952939045987</v>
+        <v>240.9529390459898</v>
       </c>
       <c r="M5" t="n">
-        <v>300.09590210126</v>
+        <v>300.0959021012631</v>
       </c>
       <c r="N5" t="n">
-        <v>309.6121800417363</v>
+        <v>309.6121800417394</v>
       </c>
       <c r="O5" t="n">
-        <v>278.8880411896212</v>
+        <v>278.8880411896241</v>
       </c>
       <c r="P5" t="n">
-        <v>203.1749950353431</v>
+        <v>203.1749950353456</v>
       </c>
       <c r="Q5" t="n">
-        <v>103.916619844623</v>
+        <v>103.9166198446249</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>25.86912147665294</v>
+        <v>25.86912147665382</v>
       </c>
       <c r="K6" t="n">
-        <v>123.1587163755597</v>
+        <v>217.1362068595324</v>
       </c>
       <c r="L6" t="n">
-        <v>212.3925385078115</v>
+        <v>212.3925385078136</v>
       </c>
       <c r="M6" t="n">
-        <v>267.404466622969</v>
+        <v>267.4044666229714</v>
       </c>
       <c r="N6" t="n">
-        <v>289.0360539512384</v>
+        <v>289.0360539512409</v>
       </c>
       <c r="O6" t="n">
-        <v>241.9672840143392</v>
+        <v>423.3179548919677</v>
       </c>
       <c r="P6" t="n">
-        <v>239.726843604714</v>
+        <v>174.6717278934033</v>
       </c>
       <c r="Q6" t="n">
-        <v>276.4172813469249</v>
+        <v>66.33999361107703</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1957579144305015</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.444126207236579</v>
+        <v>2.444126207237133</v>
       </c>
       <c r="K7" t="n">
-        <v>135.1647700771082</v>
+        <v>135.1647700771091</v>
       </c>
       <c r="L7" t="n">
-        <v>229.0516777768667</v>
+        <v>229.0516777768679</v>
       </c>
       <c r="M7" t="n">
-        <v>251.9969425325194</v>
+        <v>251.9969425325206</v>
       </c>
       <c r="N7" t="n">
-        <v>251.4945300171825</v>
+        <v>251.4945300171837</v>
       </c>
       <c r="O7" t="n">
-        <v>216.117827762843</v>
+        <v>216.1178277628441</v>
       </c>
       <c r="P7" t="n">
-        <v>161.1678722819039</v>
+        <v>161.1678722819048</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.3064220369168</v>
+        <v>27.30642203691745</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,19 +35175,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35196,7 +35196,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>443.0068759113678</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
         <v>326.5580100667037</v>
@@ -35330,13 +35330,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35345,13 +35345,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36445,7 +36445,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N24" t="n">
         <v>478.3061046004591</v>
@@ -36685,10 +36685,10 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
@@ -36925,7 +36925,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
@@ -37162,10 +37162,10 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127271</v>
@@ -37396,7 +37396,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525805</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127284</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
